--- a/src/modules/im/ts/translation.xlsx
+++ b/src/modules/im/ts/translation.xlsx
@@ -4407,7 +4407,7 @@
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" s="7">
-      <c r="A125" s="6" t="inlineStr">
+      <c r="A125" s="12" t="inlineStr">
         <is>
           <t>Open profile</t>
         </is>
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" s="7">
-      <c r="A126" s="6" t="inlineStr">
+      <c r="A126" s="12" t="inlineStr">
         <is>
           <t>Open profile page when clicked</t>
         </is>
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" s="7">
-      <c r="A127" s="6" t="inlineStr">
+      <c r="A127" s="12" t="inlineStr">
         <is>
           <t>Your name</t>
         </is>
@@ -4503,7 +4503,7 @@
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1" s="7">
-      <c r="A128" s="6" t="inlineStr">
+      <c r="A128" s="12" t="inlineStr">
         <is>
           <t>Status message input</t>
         </is>
@@ -4535,7 +4535,7 @@
       </c>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="7">
-      <c r="A129" s="6" t="inlineStr">
+      <c r="A129" s="12" t="inlineStr">
         <is>
           <t>Set your status message that will be shown to others</t>
         </is>
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" s="7">
-      <c r="A130" s="6" t="inlineStr">
+      <c r="A130" s="12" t="inlineStr">
         <is>
           <t>Your status</t>
         </is>
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" s="7">
-      <c r="A131" s="6" t="inlineStr">
+      <c r="A131" s="12" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" s="7">
-      <c r="A132" s="6" t="inlineStr">
+      <c r="A132" s="12" t="inlineStr">
         <is>
           <t>Set availability status</t>
         </is>
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="7">
-      <c r="A148" s="6" t="inlineStr">
+      <c r="A148" s="12" t="inlineStr">
         <is>
           <t>Invalid Ok ID</t>
         </is>
@@ -5175,7 +5175,7 @@
       </c>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="7">
-      <c r="A149" s="6" t="inlineStr">
+      <c r="A149" s="12" t="inlineStr">
         <is>
           <t>You need to write a message with your request</t>
         </is>
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="7">
-      <c r="A150" s="6" t="inlineStr">
+      <c r="A150" s="12" t="inlineStr">
         <is>
           <t>IMFriend is already added</t>
         </is>
@@ -8663,7 +8663,7 @@
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1" s="7">
-      <c r="A258" s="6" t="inlineStr">
+      <c r="A258" s="12" t="inlineStr">
         <is>
           <t>Close</t>
         </is>
@@ -12575,7 +12575,7 @@
       </c>
     </row>
     <row r="380" ht="16.5" customHeight="1" s="7">
-      <c r="A380" s="6" t="inlineStr">
+      <c r="A380" s="12" t="inlineStr">
         <is>
           <t>Circle #%1</t>
         </is>

--- a/src/modules/im/ts/translation.xlsx
+++ b/src/modules/im/ts/translation.xlsx
@@ -10365,7 +10365,7 @@
       </c>
     </row>
     <row r="311" ht="16.5" customHeight="1" s="7">
-      <c r="A311" s="6" t="inlineStr">
+      <c r="A311" s="12" t="inlineStr">
         <is>
           <t>Current profile location: %1</t>
         </is>
